--- a/Europe_Population.xlsx
+++ b/Europe_Population.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPiSm\Programowanie w R\Analiza-symulacyjna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58136F50-3F7A-4789-B8A2-E53A1ACDC338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB09A31-935E-48DB-8667-0DADD16816DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55F729D6-D10B-42DB-912D-E2E7BAE70A99}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{55F729D6-D10B-42DB-912D-E2E7BAE70A99}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -530,17 +530,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187858DB-8A6D-49D9-9B68-5ECE5C5A392A}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="179" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -548,7 +548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -556,7 +556,7 @@
         <v>513481700</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -564,7 +564,7 @@
         <v>11467923</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -572,7 +572,7 @@
         <v>7000039</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -580,7 +580,7 @@
         <v>10649800</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -588,7 +588,7 @@
         <v>5806081</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -596,7 +596,7 @@
         <v>83019213</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -604,7 +604,7 @@
         <v>1324820</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -612,7 +612,7 @@
         <v>4904226</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -620,7 +620,7 @@
         <v>10722287</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -628,7 +628,7 @@
         <v>46934632</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -636,7 +636,7 @@
         <v>67028000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -644,7 +644,7 @@
         <v>4076246</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -652,7 +652,7 @@
         <v>60359546</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -660,7 +660,7 @@
         <v>875900</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -668,7 +668,7 @@
         <v>1919960</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -676,7 +676,7 @@
         <v>2794170</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -684,7 +684,7 @@
         <v>613894</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -692,7 +692,7 @@
         <v>9772756</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -700,7 +700,7 @@
         <v>493559</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -708,7 +708,7 @@
         <v>17282163</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -716,7 +716,7 @@
         <v>8858775</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -724,7 +724,7 @@
         <v>37972787</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -732,7 +732,7 @@
         <v>10276617</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -740,7 +740,7 @@
         <v>19401658</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -748,7 +748,7 @@
         <v>2080908</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -756,7 +756,7 @@
         <v>5450421</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -764,7 +764,7 @@
         <v>5517920</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -772,7 +772,7 @@
         <v>10120242</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -780,7 +780,7 @@
         <v>66647112</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -788,7 +788,7 @@
         <v>357000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -796,7 +796,7 @@
         <v>38400</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -804,7 +804,7 @@
         <v>5295619</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -812,7 +812,7 @@
         <v>8542420</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -820,7 +820,7 @@
         <v>622227</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -828,7 +828,7 @@
         <v>2077100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -836,7 +836,7 @@
         <v>2862430</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -844,7 +844,7 @@
         <v>6963764</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
